--- a/data/trans_dic/P21D_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Edad-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00732558755678387</v>
+        <v>0.007377669754915024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006196737464377425</v>
+        <v>0.006270569938024717</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05745848766756502</v>
+        <v>0.05560577403019575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0930054824887187</v>
+        <v>0.09610702946935887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04888287203228741</v>
+        <v>0.05202995994322169</v>
       </c>
     </row>
     <row r="7">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01025062643083015</v>
+        <v>0.007743779459237298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007960598992551854</v>
+        <v>0.006818172838418678</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0367877394089601</v>
+        <v>0.03431593610193619</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04739604951451598</v>
+        <v>0.04540856788596241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03189579411317244</v>
+        <v>0.03231162061237161</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02704289041778231</v>
+        <v>0.0270428904177823</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.0230833715391009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02490408063981491</v>
+        <v>0.02490408063981492</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01117878965823318</v>
+        <v>0.01131098303670857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01108778618869651</v>
+        <v>0.0110883132258969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01523958809332889</v>
+        <v>0.01414029257368097</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05238384667445758</v>
+        <v>0.05232815221530495</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0456978399633937</v>
+        <v>0.04077667333714506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04017509655796013</v>
+        <v>0.0389990973620617</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0336478975956312</v>
+        <v>0.03364789759563121</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01862414718035455</v>
+        <v>0.01862414718035454</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02581033243596179</v>
+        <v>0.02581033243596178</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01848246092330517</v>
+        <v>0.01767490701879728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009543164368511556</v>
+        <v>0.00912443967243729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01648435999736934</v>
+        <v>0.01677452232203558</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05888677545331315</v>
+        <v>0.05780303249713201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03418861509139623</v>
+        <v>0.03350004431575286</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03920815762750252</v>
+        <v>0.03926111054676885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01877235928037606</v>
+        <v>0.02151353559242508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03004782600952055</v>
+        <v>0.02868431984822613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02851520199816478</v>
+        <v>0.02739604031296312</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.065861979412524</v>
+        <v>0.06969475257008965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07109523045429615</v>
+        <v>0.06868776696416874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05943846246386963</v>
+        <v>0.0567762422472689</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.0115636838200372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.01113120372182889</v>
+        <v>0.01113120372182888</v>
       </c>
     </row>
     <row r="20">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003388461383783065</v>
+        <v>0.003450455673820221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004441604422051462</v>
+        <v>0.004913367117936963</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03728949184402248</v>
+        <v>0.03707428343538891</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02711961698806385</v>
+        <v>0.02875663749482085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02330620429042123</v>
+        <v>0.02442872288554593</v>
       </c>
     </row>
     <row r="22">
@@ -912,10 +912,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.003037562350050503</v>
+        <v>0.003036470064768437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001808955158976816</v>
+        <v>0.001782366924550275</v>
       </c>
     </row>
     <row r="24">
@@ -927,10 +927,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02609889278394948</v>
+        <v>0.02758677438284854</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01533267475409075</v>
+        <v>0.01665786604562148</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +951,7 @@
         <v>0.02393168275672912</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="28">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2316</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12111</v>
+        <v>11721</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15158</v>
+        <v>15664</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18271</v>
+        <v>19447</v>
       </c>
     </row>
     <row r="8">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2549</v>
+        <v>1926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3785</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="11">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8344</v>
+        <v>7783</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11786</v>
+        <v>11292</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15166</v>
+        <v>15364</v>
       </c>
     </row>
     <row r="12">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2823</v>
+        <v>2856</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>3289</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8369</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="15">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13228</v>
+        <v>13214</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13556</v>
+        <v>12096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22062</v>
+        <v>21416</v>
       </c>
     </row>
     <row r="16">
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5860</v>
+        <v>5604</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3300</v>
+        <v>3155</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10927</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18671</v>
+        <v>18327</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11823</v>
+        <v>11585</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25990</v>
+        <v>26025</v>
       </c>
     </row>
     <row r="20">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4834</v>
+        <v>5539</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7637</v>
+        <v>7291</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14590</v>
+        <v>14017</v>
       </c>
     </row>
     <row r="23">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16958</v>
+        <v>17945</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18071</v>
+        <v>17459</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30412</v>
+        <v>29050</v>
       </c>
     </row>
     <row r="24">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1659</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="27">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6490</v>
+        <v>6453</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5412</v>
+        <v>5739</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8708</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="28">
@@ -1566,7 +1566,7 @@
         <v>567</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4874</v>
+        <v>5152</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4850</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
     </row>
     <row r="36">
